--- a/updatedData.xlsx
+++ b/updatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wurud\wurud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF30ED37-0294-4CDB-800C-AEA531093531}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3929F-6DF2-478E-A843-88EF582F68B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{F330C007-8344-436F-9406-748923A45089}"/>
   </bookViews>
@@ -75,15 +75,9 @@
     <t>الأول  من الطهارة</t>
   </si>
   <si>
-    <t>أحمد بن يحيى النجمي</t>
-  </si>
-  <si>
     <t>جامع الورود</t>
   </si>
   <si>
-    <t>حسن بن محمد منصور الدغريري</t>
-  </si>
-  <si>
     <t>13.10.2025</t>
   </si>
   <si>
@@ -318,9 +312,6 @@
     <t>الملخص شرح كتاب التوحيد</t>
   </si>
   <si>
-    <t>صالح الفوزان</t>
-  </si>
-  <si>
     <t>08.10.2025</t>
   </si>
   <si>
@@ -999,9 +990,6 @@
     <t>الأول كتاب العلم والإيمان (من حديث ١ - ٣٠)</t>
   </si>
   <si>
-    <t>محمد بن إسماعيل البخاري</t>
-  </si>
-  <si>
     <t>02.01.2026</t>
   </si>
   <si>
@@ -1092,9 +1080,6 @@
     <t>خطبة_الجمعة  - مختصر السيرة النبوية</t>
   </si>
   <si>
-    <t>محمد بن عبدالوهاب</t>
-  </si>
-  <si>
     <t>'11:04</t>
   </si>
   <si>
@@ -1498,6 +1483,21 @@
   </si>
   <si>
     <t>12:41</t>
+  </si>
+  <si>
+    <t>الشيخ أحمد بن يحيى النجمي</t>
+  </si>
+  <si>
+    <t>الشيخ  صالح الفوزان</t>
+  </si>
+  <si>
+    <t>الإمام محمد بن إسماعيل البخاري</t>
+  </si>
+  <si>
+    <t>الإمام محمد بن عبدالوهاب</t>
+  </si>
+  <si>
+    <t>الشيخ حسن بن محمد منصور الدغريري</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0218C5D0-9DF9-4061-862C-850078D5B63A}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="H166" sqref="H166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,22 +1942,22 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1974,25 +1974,25 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -2009,25 +2009,25 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -2044,25 +2044,25 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2070,7 +2070,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2079,25 +2079,25 @@
         <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2105,7 +2105,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -2114,25 +2114,25 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -2149,25 +2149,25 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -2184,25 +2184,25 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2210,7 +2210,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2219,25 +2219,25 @@
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -2254,25 +2254,25 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -2289,25 +2289,25 @@
         <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -2324,25 +2324,25 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2350,7 +2350,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2359,25 +2359,25 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -2394,25 +2394,25 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2420,7 +2420,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
@@ -2429,25 +2429,25 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="K16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>12</v>
@@ -2464,25 +2464,25 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2499,25 +2499,25 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -2534,25 +2534,25 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -2569,25 +2569,25 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -2604,25 +2604,25 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="K21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -2639,25 +2639,25 @@
         <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2665,34 +2665,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="J23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2700,34 +2700,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,34 +2735,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2770,34 +2770,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2805,34 +2805,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2840,34 +2840,34 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2875,34 +2875,34 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2910,34 +2910,34 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2945,34 +2945,34 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2980,34 +2980,34 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3015,34 +3015,34 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3050,34 +3050,34 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3085,34 +3085,34 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3120,34 +3120,34 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3155,34 +3155,34 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3190,34 +3190,34 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F38" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3225,34 +3225,34 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,34 +3260,34 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3295,34 +3295,34 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3330,34 +3330,34 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3365,34 +3365,34 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3400,34 +3400,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,34 +3435,34 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3470,34 +3470,34 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3505,34 +3505,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3540,34 +3540,34 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3575,34 +3575,34 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3610,34 +3610,34 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3645,34 +3645,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -3680,34 +3680,34 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F52" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,34 +3715,34 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -3750,34 +3750,34 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="K54" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,34 +3785,34 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -3820,34 +3820,34 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3855,34 +3855,34 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G57" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -3890,34 +3890,34 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -3925,34 +3925,34 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3960,34 +3960,34 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -3995,34 +3995,34 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4030,34 +4030,34 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4065,34 +4065,34 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4100,34 +4100,34 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4135,34 +4135,34 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4170,34 +4170,34 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4205,34 +4205,34 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4240,34 +4240,34 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4275,34 +4275,34 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4310,34 +4310,34 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4345,34 +4345,34 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4380,34 +4380,34 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -4415,34 +4415,34 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -4450,34 +4450,34 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -4485,34 +4485,34 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -4520,34 +4520,34 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -4555,34 +4555,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -4590,34 +4590,34 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -4625,34 +4625,34 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -4660,34 +4660,34 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -4695,34 +4695,34 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4730,34 +4730,34 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -4765,34 +4765,34 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="G83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4800,34 +4800,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4835,34 +4835,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="J85" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4870,34 +4870,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4905,34 +4905,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4940,34 +4940,34 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4975,34 +4975,34 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,34 +5010,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5045,34 +5045,34 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5080,34 +5080,34 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5115,34 +5115,34 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5150,34 +5150,34 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5185,34 +5185,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5220,34 +5220,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5255,34 +5255,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5290,34 +5290,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5325,34 +5325,34 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J99" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="K99" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5360,34 +5360,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5395,34 +5395,34 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5430,34 +5430,34 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -5465,34 +5465,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -5500,34 +5500,34 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -5535,34 +5535,34 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -5570,34 +5570,34 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -5605,34 +5605,34 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -5640,34 +5640,34 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
@@ -5675,34 +5675,34 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -5710,34 +5710,34 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -5745,34 +5745,34 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -5780,34 +5780,34 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I112" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="J112" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5815,34 +5815,34 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -5850,34 +5850,34 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -5885,34 +5885,34 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -5920,34 +5920,34 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -5955,34 +5955,34 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5990,34 +5990,34 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6025,34 +6025,34 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6060,34 +6060,34 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6095,34 +6095,34 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6130,34 +6130,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6165,34 +6165,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6200,34 +6200,34 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6235,34 +6235,34 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6270,34 +6270,34 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J126" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J126" s="4" t="s">
-        <v>359</v>
-      </c>
       <c r="K126" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6305,34 +6305,34 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6340,34 +6340,34 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6375,34 +6375,34 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6410,34 +6410,34 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6445,34 +6445,34 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,34 +6480,34 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6515,34 +6515,34 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6550,34 +6550,34 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6585,34 +6585,34 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6620,34 +6620,34 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -6655,34 +6655,34 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6690,34 +6690,34 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6725,34 +6725,34 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J139" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>388</v>
-      </c>
       <c r="K139" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -6760,34 +6760,34 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -6795,34 +6795,34 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -6830,34 +6830,34 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -6865,34 +6865,34 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,34 +6900,34 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6935,34 +6935,34 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6970,34 +6970,34 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7005,34 +7005,34 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7040,34 +7040,34 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7075,34 +7075,34 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7110,34 +7110,34 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7145,34 +7145,34 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -7180,34 +7180,34 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -7215,34 +7215,34 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -7250,34 +7250,34 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -7285,34 +7285,34 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
@@ -7320,34 +7320,34 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
@@ -7355,34 +7355,34 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
@@ -7390,34 +7390,34 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
@@ -7425,34 +7425,34 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -7460,13 +7460,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>13</v>
@@ -7475,19 +7475,19 @@
         <v>13</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7495,13 +7495,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
@@ -7510,19 +7510,19 @@
         <v>13</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7530,13 +7530,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
@@ -7545,19 +7545,19 @@
         <v>13</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7565,13 +7565,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
@@ -7580,19 +7580,19 @@
         <v>13</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>18</v>
+        <v>490</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/updatedData.xlsx
+++ b/updatedData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wurud\wurud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C3929F-6DF2-478E-A843-88EF582F68B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92C7396-14FE-4B01-9005-C9FB657572CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{F330C007-8344-436F-9406-748923A45089}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="485">
   <si>
     <t>S.No</t>
   </si>
@@ -555,9 +555,6 @@
     <t>AUDIO-2025-12-30-18-50-52.m4a</t>
   </si>
   <si>
-    <t>واحد و</t>
-  </si>
-  <si>
     <t>31.12.2025</t>
   </si>
   <si>
@@ -774,9 +771,6 @@
     <t>التفسير الميسر</t>
   </si>
   <si>
-    <t>الاول في</t>
-  </si>
-  <si>
     <t>نخبة من أهل العلم</t>
   </si>
   <si>
@@ -789,81 +783,54 @@
     <t>4_5999163297750849343.mp3</t>
   </si>
   <si>
-    <t>الثاني في</t>
-  </si>
-  <si>
     <t>'17:29</t>
   </si>
   <si>
     <t>Mp3 Editor_251013151759.mp3</t>
   </si>
   <si>
-    <t>الثالث في</t>
-  </si>
-  <si>
     <t>'6:40</t>
   </si>
   <si>
     <t>Mp3 Editor_251015092648.mp3</t>
   </si>
   <si>
-    <t>الرابع في</t>
-  </si>
-  <si>
     <t>'12:46</t>
   </si>
   <si>
     <t>Mp3 Editor_251015223639.mp3</t>
   </si>
   <si>
-    <t>الخامس في</t>
-  </si>
-  <si>
     <t>'4:40</t>
   </si>
   <si>
     <t>Mp3 Editor_251017122120.mp3</t>
   </si>
   <si>
-    <t>السادس في</t>
-  </si>
-  <si>
     <t>'7:15</t>
   </si>
   <si>
     <t>Mp3 Editor_251026014901.mp3</t>
   </si>
   <si>
-    <t>السابع في</t>
-  </si>
-  <si>
     <t>'5:47</t>
   </si>
   <si>
     <t>Mp3 Editor_251026070944.mp3</t>
   </si>
   <si>
-    <t>الثامن في</t>
-  </si>
-  <si>
     <t>'9:55</t>
   </si>
   <si>
     <t>Mp3 Editor_251129231102.mp3</t>
   </si>
   <si>
-    <t>التاسع في</t>
-  </si>
-  <si>
     <t>'6:05</t>
   </si>
   <si>
     <t>Mp3 Editor_251202163202.mp3</t>
   </si>
   <si>
-    <t>العاشر في</t>
-  </si>
-  <si>
     <t>AUD-20251130-WA0012.m4a</t>
   </si>
   <si>
@@ -1164,36 +1131,24 @@
     <t>تنبيه الانام على ما في كتاب سبل السلام من الفوائد والأحكام</t>
   </si>
   <si>
-    <t>الاول من</t>
-  </si>
-  <si>
     <t>'47:59</t>
   </si>
   <si>
     <t>AUDIO-2025-12-27-10-25-24.m4a</t>
   </si>
   <si>
-    <t>الثاني من</t>
-  </si>
-  <si>
     <t>'1:11</t>
   </si>
   <si>
     <t>Subulussalam.m4a</t>
   </si>
   <si>
-    <t>الثالث من</t>
-  </si>
-  <si>
     <t>'46:17</t>
   </si>
   <si>
     <t>AUDIO-2026-01-17-14-52-58.m4a</t>
   </si>
   <si>
-    <t>الرابع من</t>
-  </si>
-  <si>
     <t>'43:41</t>
   </si>
   <si>
@@ -1498,6 +1453,33 @@
   </si>
   <si>
     <t>الشيخ حسن بن محمد منصور الدغريري</t>
+  </si>
+  <si>
+    <t>الاول</t>
+  </si>
+  <si>
+    <t>الثاني</t>
+  </si>
+  <si>
+    <t>الثالث</t>
+  </si>
+  <si>
+    <t>الرابع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">واحد و الثلاثون </t>
+  </si>
+  <si>
+    <t>الخامس</t>
+  </si>
+  <si>
+    <t>السادس</t>
+  </si>
+  <si>
+    <t>السابع</t>
+  </si>
+  <si>
+    <t>التاسع</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0218C5D0-9DF9-4061-862C-850078D5B63A}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="H166" sqref="H166"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,13 +1924,13 @@
         <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>17</v>
@@ -1977,13 +1959,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -2012,13 +1994,13 @@
         <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
@@ -2047,13 +2029,13 @@
         <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>30</v>
@@ -2082,13 +2064,13 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -2117,13 +2099,13 @@
         <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>37</v>
@@ -2152,13 +2134,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>37</v>
@@ -2187,13 +2169,13 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>44</v>
@@ -2222,13 +2204,13 @@
         <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>48</v>
@@ -2257,13 +2239,13 @@
         <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>52</v>
@@ -2292,13 +2274,13 @@
         <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>56</v>
@@ -2327,13 +2309,13 @@
         <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>56</v>
@@ -2362,13 +2344,13 @@
         <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>63</v>
@@ -2397,13 +2379,13 @@
         <v>66</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>63</v>
@@ -2432,13 +2414,13 @@
         <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>70</v>
@@ -2467,13 +2449,13 @@
         <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>70</v>
@@ -2502,13 +2484,13 @@
         <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>70</v>
@@ -2537,13 +2519,13 @@
         <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>80</v>
@@ -2572,13 +2554,13 @@
         <v>83</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>84</v>
@@ -2607,13 +2589,13 @@
         <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>88</v>
@@ -2642,13 +2624,13 @@
         <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>88</v>
@@ -2674,16 +2656,16 @@
         <v>94</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>95</v>
@@ -2709,16 +2691,16 @@
         <v>94</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>99</v>
@@ -2744,22 +2726,22 @@
         <v>94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>97</v>
@@ -2779,16 +2761,16 @@
         <v>94</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>103</v>
@@ -2814,16 +2796,16 @@
         <v>94</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>22</v>
@@ -2849,16 +2831,16 @@
         <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>26</v>
@@ -2884,16 +2866,16 @@
         <v>94</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>26</v>
@@ -2919,16 +2901,16 @@
         <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>112</v>
@@ -2954,16 +2936,16 @@
         <v>94</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>115</v>
@@ -2989,16 +2971,16 @@
         <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>115</v>
@@ -3027,13 +3009,13 @@
         <v>120</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>115</v>
@@ -3062,13 +3044,13 @@
         <v>123</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>30</v>
@@ -3097,13 +3079,13 @@
         <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>127</v>
@@ -3132,13 +3114,13 @@
         <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>131</v>
@@ -3167,13 +3149,13 @@
         <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>131</v>
@@ -3202,13 +3184,13 @@
         <v>137</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>37</v>
@@ -3237,13 +3219,13 @@
         <v>140</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>44</v>
@@ -3272,13 +3254,13 @@
         <v>143</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>48</v>
@@ -3307,13 +3289,13 @@
         <v>146</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>48</v>
@@ -3339,16 +3321,16 @@
         <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>56</v>
@@ -3377,13 +3359,13 @@
         <v>151</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>152</v>
@@ -3412,13 +3394,13 @@
         <v>155</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>152</v>
@@ -3447,13 +3429,13 @@
         <v>158</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>159</v>
@@ -3482,13 +3464,13 @@
         <v>162</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>63</v>
@@ -3517,13 +3499,13 @@
         <v>165</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>70</v>
@@ -3552,13 +3534,13 @@
         <v>167</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>70</v>
@@ -3587,13 +3569,13 @@
         <v>170</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>171</v>
@@ -3619,16 +3601,16 @@
         <v>94</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>80</v>
@@ -3654,22 +3636,22 @@
         <v>94</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>97</v>
@@ -3680,7 +3662,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>12</v>
@@ -3689,22 +3671,22 @@
         <v>94</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>97</v>
@@ -3715,31 +3697,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>19</v>
@@ -3750,31 +3732,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>19</v>
@@ -3785,31 +3767,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>19</v>
@@ -3820,31 +3802,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>19</v>
@@ -3855,31 +3837,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>19</v>
@@ -3890,31 +3872,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>19</v>
@@ -3925,31 +3907,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>19</v>
@@ -3960,31 +3942,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>19</v>
@@ -3995,31 +3977,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>19</v>
@@ -4030,31 +4012,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>19</v>
@@ -4065,31 +4047,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>19</v>
@@ -4100,31 +4082,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>19</v>
@@ -4135,31 +4117,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>19</v>
@@ -4170,31 +4152,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>131</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>19</v>
@@ -4205,31 +4187,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J67" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>19</v>
@@ -4240,31 +4222,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>19</v>
@@ -4275,31 +4257,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J69" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>19</v>
@@ -4310,31 +4292,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>19</v>
@@ -4345,31 +4327,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>19</v>
@@ -4380,31 +4362,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>19</v>
@@ -4415,31 +4397,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>19</v>
@@ -4450,31 +4432,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>19</v>
@@ -4485,31 +4467,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J75" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>19</v>
@@ -4520,31 +4502,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>19</v>
@@ -4555,31 +4537,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>19</v>
@@ -4590,25 +4572,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>70</v>
@@ -4625,31 +4607,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>171</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>19</v>
@@ -4660,31 +4642,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>19</v>
@@ -4695,31 +4677,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J81" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>19</v>
@@ -4730,31 +4712,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>88</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>19</v>
@@ -4765,34 +4747,34 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -4800,34 +4782,34 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -4835,34 +4817,34 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -4870,34 +4852,34 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -4905,34 +4887,34 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -4940,34 +4922,34 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -4975,34 +4957,34 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5010,34 +4992,34 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5045,34 +5027,34 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5080,34 +5062,34 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5115,34 +5097,34 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5150,34 +5132,34 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5185,34 +5167,34 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5220,34 +5202,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5255,34 +5237,34 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5290,31 +5272,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>97</v>
@@ -5325,31 +5307,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K99" s="1" t="s">
         <v>97</v>
@@ -5360,31 +5342,31 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>97</v>
@@ -5395,31 +5377,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>97</v>
@@ -5430,31 +5412,31 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>97</v>
@@ -5465,31 +5447,31 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="K103" s="1" t="s">
         <v>97</v>
@@ -5500,31 +5482,31 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="K104" s="1" t="s">
         <v>97</v>
@@ -5535,31 +5517,31 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>97</v>
@@ -5570,31 +5552,31 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>97</v>
@@ -5605,31 +5587,31 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="G107" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>97</v>
@@ -5640,31 +5622,31 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>97</v>
@@ -5681,25 +5663,25 @@
         <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K109" s="1" t="s">
         <v>97</v>
@@ -5710,31 +5692,31 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>97</v>
@@ -5745,31 +5727,31 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>97</v>
@@ -5780,34 +5762,34 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -5815,31 +5797,31 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>97</v>
@@ -5850,31 +5832,31 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>97</v>
@@ -5885,31 +5867,31 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>97</v>
@@ -5920,31 +5902,31 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>97</v>
@@ -5955,31 +5937,31 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>97</v>
@@ -5990,31 +5972,31 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>97</v>
@@ -6025,31 +6007,31 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="K119" s="1" t="s">
         <v>97</v>
@@ -6060,31 +6042,31 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="K120" s="1" t="s">
         <v>97</v>
@@ -6095,34 +6077,34 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6130,34 +6112,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6165,34 +6147,34 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6200,34 +6182,34 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6235,34 +6217,34 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>112</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -6270,34 +6252,34 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>115</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -6305,34 +6287,34 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6340,34 +6322,34 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
@@ -6375,34 +6357,34 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6410,34 +6392,34 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -6445,34 +6427,34 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -6480,34 +6462,34 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -6515,34 +6497,34 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -6550,34 +6532,34 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -6585,34 +6567,34 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -6620,34 +6602,34 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -6655,34 +6637,34 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6690,31 +6672,31 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>19</v>
@@ -6725,31 +6707,31 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>382</v>
+        <v>477</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>19</v>
@@ -6760,31 +6742,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>385</v>
+        <v>478</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="K140" s="1" t="s">
         <v>19</v>
@@ -6795,31 +6777,31 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>388</v>
+        <v>479</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="K141" s="1" t="s">
         <v>19</v>
@@ -6830,31 +6812,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K142" s="1" t="s">
         <v>97</v>
@@ -6865,16 +6847,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>13</v>
@@ -6883,16 +6865,16 @@
         <v>16</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
@@ -6900,16 +6882,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>13</v>
@@ -6918,16 +6900,16 @@
         <v>16</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
@@ -6935,16 +6917,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>13</v>
@@ -6953,16 +6935,16 @@
         <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -6970,16 +6952,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>13</v>
@@ -6988,16 +6970,16 @@
         <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7005,16 +6987,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>13</v>
@@ -7023,16 +7005,16 @@
         <v>16</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7040,16 +7022,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>13</v>
@@ -7058,16 +7040,16 @@
         <v>16</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7075,16 +7057,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>13</v>
@@ -7093,7 +7075,7 @@
         <v>16</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>52</v>
@@ -7102,7 +7084,7 @@
         <v>141</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7110,16 +7092,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>13</v>
@@ -7128,16 +7110,16 @@
         <v>16</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7145,31 +7127,31 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>97</v>
@@ -7180,31 +7162,31 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>127</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>97</v>
@@ -7215,31 +7197,31 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>152</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="K153" s="1" t="s">
         <v>97</v>
@@ -7250,31 +7232,31 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>97</v>
@@ -7285,31 +7267,31 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="K155" s="1" t="s">
         <v>97</v>
@@ -7320,31 +7302,31 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>56</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K156" s="1" t="s">
         <v>97</v>
@@ -7355,31 +7337,31 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K157" s="1" t="s">
         <v>97</v>
@@ -7390,31 +7372,31 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>97</v>
@@ -7425,31 +7407,31 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="K159" s="1" t="s">
         <v>97</v>
@@ -7460,13 +7442,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>13</v>
@@ -7478,16 +7460,16 @@
         <v>16</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
@@ -7495,13 +7477,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>13</v>
@@ -7513,16 +7495,16 @@
         <v>16</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
@@ -7530,13 +7512,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>13</v>
@@ -7548,16 +7530,16 @@
         <v>16</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
@@ -7565,13 +7547,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>13</v>
@@ -7583,16 +7565,16 @@
         <v>16</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
